--- a/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/rule/process.vendor.check-in/activity-rule.xlsx
+++ b/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/rule/process.vendor.check-in/activity-rule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/rule/process.vendor.check-in/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB414AB0-87C9-194A-A5F0-ED70F19BDFEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE631AC1-E658-EF43-88E3-39EC97A55BCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="67400" yWindow="-4440" windowWidth="47800" windowHeight="23220" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="64400" yWindow="-2220" windowWidth="47800" windowHeight="23220" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-CDATA" sheetId="7" r:id="rId1"/>
@@ -330,10 +330,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>w.oa.vacation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>process.vendor.check-in</t>
   </si>
   <si>
@@ -389,6 +385,10 @@
   </si>
   <si>
     <t>270a62f3-cbbf-4208-a2e5-a524c7774a94</t>
+  </si>
+  <si>
+    <t>w.vendor.check.in</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -914,8 +914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{500280C7-B0AC-7C45-9420-F2551253A777}">
   <dimension ref="A2:P21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:A21"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
@@ -929,7 +929,7 @@
     <col min="7" max="7" width="69.5" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="111" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="26.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.5" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="18.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
@@ -1065,10 +1065,10 @@
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>31</v>
@@ -1092,7 +1092,7 @@
         <v>34</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="K5" s="9"/>
       <c r="L5" s="11" t="b">
@@ -1100,17 +1100,17 @@
       </c>
       <c r="M5" s="11"/>
       <c r="N5" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O5" s="11"/>
       <c r="P5" s="11"/>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>36</v>
@@ -1134,7 +1134,7 @@
         <v>34</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="K6" s="9"/>
       <c r="L6" s="11" t="b">
@@ -1142,17 +1142,17 @@
       </c>
       <c r="M6" s="11"/>
       <c r="N6" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O6" s="11"/>
       <c r="P6" s="11"/>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>31</v>
@@ -1176,7 +1176,7 @@
         <v>34</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="K7" s="9"/>
       <c r="L7" s="11" t="b">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="M7" s="11"/>
       <c r="N7" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O7" s="11"/>
       <c r="P7" s="11"/>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>31</v>
@@ -1218,7 +1218,7 @@
         <v>34</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="K8" s="9"/>
       <c r="L8" s="11" t="b">
@@ -1226,17 +1226,17 @@
       </c>
       <c r="M8" s="11"/>
       <c r="N8" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O8" s="11"/>
       <c r="P8" s="11"/>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>31</v>
@@ -1260,7 +1260,7 @@
         <v>34</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="K9" s="9"/>
       <c r="L9" s="11" t="b">
@@ -1268,17 +1268,17 @@
       </c>
       <c r="M9" s="11"/>
       <c r="N9" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O9" s="11"/>
       <c r="P9" s="11"/>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>31</v>
@@ -1302,7 +1302,7 @@
         <v>34</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="K10" s="9"/>
       <c r="L10" s="11" t="b">
@@ -1310,17 +1310,17 @@
       </c>
       <c r="M10" s="11"/>
       <c r="N10" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O10" s="11"/>
       <c r="P10" s="11"/>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>36</v>
@@ -1344,7 +1344,7 @@
         <v>34</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="K11" s="9"/>
       <c r="L11" s="11" t="b">
@@ -1352,17 +1352,17 @@
       </c>
       <c r="M11" s="11"/>
       <c r="N11" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O11" s="11"/>
       <c r="P11" s="11"/>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>36</v>
@@ -1386,7 +1386,7 @@
         <v>34</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="K12" s="9"/>
       <c r="L12" s="11" t="b">
@@ -1394,17 +1394,17 @@
       </c>
       <c r="M12" s="11"/>
       <c r="N12" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O12" s="11"/>
       <c r="P12" s="11"/>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>36</v>
@@ -1428,7 +1428,7 @@
         <v>34</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="K13" s="11" t="s">
         <v>41</v>
@@ -1438,17 +1438,17 @@
       </c>
       <c r="M13" s="11"/>
       <c r="N13" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O13" s="11"/>
       <c r="P13" s="11"/>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>36</v>
@@ -1472,7 +1472,7 @@
         <v>34</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="K14" s="9"/>
       <c r="L14" s="11" t="b">
@@ -1480,17 +1480,17 @@
       </c>
       <c r="M14" s="11"/>
       <c r="N14" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O14" s="11"/>
       <c r="P14" s="11"/>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>36</v>
@@ -1514,7 +1514,7 @@
         <v>34</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="K15" s="9"/>
       <c r="L15" s="11" t="b">
@@ -1522,17 +1522,17 @@
       </c>
       <c r="M15" s="11"/>
       <c r="N15" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O15" s="11"/>
       <c r="P15" s="11"/>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>44</v>
@@ -1556,7 +1556,7 @@
         <v>34</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="K16" s="9"/>
       <c r="L16" s="11" t="b">
@@ -1564,17 +1564,17 @@
       </c>
       <c r="M16" s="11"/>
       <c r="N16" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O16" s="11"/>
       <c r="P16" s="11"/>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>44</v>
@@ -1598,7 +1598,7 @@
         <v>34</v>
       </c>
       <c r="J17" s="11" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="K17" s="9"/>
       <c r="L17" s="11" t="b">
@@ -1606,17 +1606,17 @@
       </c>
       <c r="M17" s="11"/>
       <c r="N17" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O17" s="11"/>
       <c r="P17" s="11"/>
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>44</v>
@@ -1640,7 +1640,7 @@
         <v>34</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="K18" s="11" t="s">
         <v>41</v>
@@ -1650,17 +1650,17 @@
       </c>
       <c r="M18" s="11"/>
       <c r="N18" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O18" s="11"/>
       <c r="P18" s="11"/>
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>44</v>
@@ -1684,7 +1684,7 @@
         <v>34</v>
       </c>
       <c r="J19" s="11" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="K19" s="9"/>
       <c r="L19" s="11" t="b">
@@ -1692,17 +1692,17 @@
       </c>
       <c r="M19" s="11"/>
       <c r="N19" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O19" s="11"/>
       <c r="P19" s="11"/>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>44</v>
@@ -1726,7 +1726,7 @@
         <v>34</v>
       </c>
       <c r="J20" s="11" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="K20" s="9"/>
       <c r="L20" s="11" t="b">
@@ -1734,17 +1734,17 @@
       </c>
       <c r="M20" s="11"/>
       <c r="N20" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O20" s="11"/>
       <c r="P20" s="11"/>
     </row>
     <row r="21" spans="1:16">
       <c r="A21" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C21" s="10" t="s">
         <v>44</v>
@@ -1768,7 +1768,7 @@
         <v>34</v>
       </c>
       <c r="J21" s="11" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="K21" s="9"/>
       <c r="L21" s="11" t="b">
@@ -1776,7 +1776,7 @@
       </c>
       <c r="M21" s="11"/>
       <c r="N21" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O21" s="11"/>
       <c r="P21" s="11"/>

--- a/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/rule/process.vendor.check-in/activity-rule.xlsx
+++ b/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/rule/process.vendor.check-in/activity-rule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/rule/process.vendor.check-in/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE631AC1-E658-EF43-88E3-39EC97A55BCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FED07049-1EF5-264E-99A2-D3F666F0D221}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="64400" yWindow="-2220" windowWidth="47800" windowHeight="23220" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="96">
   <si>
     <t>key</t>
   </si>
@@ -226,18 +226,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>审批通过/关单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>$zn.status == "PENDING" and $zo.acceptedBy != null</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>$zn.status == "FINISHED" and $zn.flowEnd == false</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>暂存</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -388,6 +380,18 @@
   </si>
   <si>
     <t>w.vendor.check.in</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$zo.status == "FINISHED" and $zn.flowEnd == false</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e.init</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理/关闭</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -914,8 +918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{500280C7-B0AC-7C45-9420-F2551253A777}">
   <dimension ref="A2:P21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
@@ -1065,34 +1069,34 @@
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>31</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E5" s="9">
         <v>1005</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I5" s="11" t="s">
         <v>34</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K5" s="9"/>
       <c r="L5" s="11" t="b">
@@ -1100,23 +1104,23 @@
       </c>
       <c r="M5" s="11"/>
       <c r="N5" s="12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O5" s="11"/>
       <c r="P5" s="11"/>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>36</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E6" s="9">
         <v>1005</v>
@@ -1125,16 +1129,16 @@
         <v>37</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I6" s="11" t="s">
         <v>34</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K6" s="9"/>
       <c r="L6" s="11" t="b">
@@ -1142,23 +1146,23 @@
       </c>
       <c r="M6" s="11"/>
       <c r="N6" s="12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O6" s="11"/>
       <c r="P6" s="11"/>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>31</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E7" s="9">
         <v>1010</v>
@@ -1167,16 +1171,16 @@
         <v>40</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I7" s="11" t="s">
         <v>34</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K7" s="9"/>
       <c r="L7" s="11" t="b">
@@ -1184,41 +1188,41 @@
       </c>
       <c r="M7" s="11"/>
       <c r="N7" s="12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O7" s="11"/>
       <c r="P7" s="11"/>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>31</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E8" s="9">
         <v>1010</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I8" s="11" t="s">
         <v>34</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K8" s="9"/>
       <c r="L8" s="11" t="b">
@@ -1226,23 +1230,23 @@
       </c>
       <c r="M8" s="11"/>
       <c r="N8" s="12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O8" s="11"/>
       <c r="P8" s="11"/>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>31</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E9" s="17">
         <v>1015</v>
@@ -1251,16 +1255,16 @@
         <v>42</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I9" s="11" t="s">
         <v>34</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K9" s="9"/>
       <c r="L9" s="11" t="b">
@@ -1268,23 +1272,23 @@
       </c>
       <c r="M9" s="11"/>
       <c r="N9" s="12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O9" s="11"/>
       <c r="P9" s="11"/>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>31</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E10" s="17">
         <v>1015</v>
@@ -1293,16 +1297,16 @@
         <v>43</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I10" s="11" t="s">
         <v>34</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K10" s="9"/>
       <c r="L10" s="11" t="b">
@@ -1310,23 +1314,23 @@
       </c>
       <c r="M10" s="11"/>
       <c r="N10" s="12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O10" s="11"/>
       <c r="P10" s="11"/>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>36</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E11" s="17">
         <v>1005</v>
@@ -1335,16 +1339,16 @@
         <v>37</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I11" s="11" t="s">
         <v>34</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K11" s="9"/>
       <c r="L11" s="11" t="b">
@@ -1352,23 +1356,23 @@
       </c>
       <c r="M11" s="11"/>
       <c r="N11" s="12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O11" s="11"/>
       <c r="P11" s="11"/>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>36</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E12" s="9">
         <v>1010</v>
@@ -1377,16 +1381,16 @@
         <v>45</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I12" s="11" t="s">
         <v>34</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K12" s="9"/>
       <c r="L12" s="11" t="b">
@@ -1394,17 +1398,17 @@
       </c>
       <c r="M12" s="11"/>
       <c r="N12" s="12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O12" s="11"/>
       <c r="P12" s="11"/>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>36</v>
@@ -1419,16 +1423,16 @@
         <v>47</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I13" s="11" t="s">
         <v>34</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K13" s="11" t="s">
         <v>41</v>
@@ -1438,23 +1442,23 @@
       </c>
       <c r="M13" s="11"/>
       <c r="N13" s="12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O13" s="11"/>
       <c r="P13" s="11"/>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>36</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E14" s="9">
         <v>1015</v>
@@ -1463,16 +1467,16 @@
         <v>40</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I14" s="11" t="s">
         <v>34</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K14" s="9"/>
       <c r="L14" s="11" t="b">
@@ -1480,41 +1484,41 @@
       </c>
       <c r="M14" s="11"/>
       <c r="N14" s="12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O14" s="11"/>
       <c r="P14" s="11"/>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>36</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E15" s="9">
         <v>1015</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="11" t="s">
         <v>34</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K15" s="9"/>
       <c r="L15" s="11" t="b">
@@ -1522,41 +1526,41 @@
       </c>
       <c r="M15" s="11"/>
       <c r="N15" s="12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O15" s="11"/>
       <c r="P15" s="11"/>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>44</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E16" s="9">
         <v>1005</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>50</v>
+        <v>93</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I16" s="18" t="s">
         <v>34</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K16" s="9"/>
       <c r="L16" s="11" t="b">
@@ -1564,23 +1568,23 @@
       </c>
       <c r="M16" s="11"/>
       <c r="N16" s="12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O16" s="11"/>
       <c r="P16" s="11"/>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>44</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E17" s="9">
         <v>1010</v>
@@ -1589,16 +1593,16 @@
         <v>46</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I17" s="11" t="s">
         <v>34</v>
       </c>
       <c r="J17" s="11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K17" s="9"/>
       <c r="L17" s="11" t="b">
@@ -1606,17 +1610,17 @@
       </c>
       <c r="M17" s="11"/>
       <c r="N17" s="12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O17" s="11"/>
       <c r="P17" s="11"/>
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>44</v>
@@ -1631,16 +1635,16 @@
         <v>47</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I18" s="11" t="s">
         <v>34</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K18" s="11" t="s">
         <v>41</v>
@@ -1650,23 +1654,23 @@
       </c>
       <c r="M18" s="11"/>
       <c r="N18" s="12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O18" s="11"/>
       <c r="P18" s="11"/>
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>44</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E19" s="9">
         <v>1015</v>
@@ -1675,16 +1679,16 @@
         <v>40</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I19" s="11" t="s">
         <v>34</v>
       </c>
       <c r="J19" s="11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K19" s="9"/>
       <c r="L19" s="11" t="b">
@@ -1692,41 +1696,41 @@
       </c>
       <c r="M19" s="11"/>
       <c r="N19" s="12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O19" s="11"/>
       <c r="P19" s="11"/>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>44</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E20" s="9">
         <v>1015</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I20" s="11" t="s">
         <v>34</v>
       </c>
       <c r="J20" s="11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K20" s="9"/>
       <c r="L20" s="11" t="b">
@@ -1734,41 +1738,41 @@
       </c>
       <c r="M20" s="11"/>
       <c r="N20" s="12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O20" s="11"/>
       <c r="P20" s="11"/>
     </row>
     <row r="21" spans="1:16">
       <c r="A21" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E21" s="9">
         <v>1020</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>48</v>
+        <v>95</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I21" s="18" t="s">
         <v>34</v>
       </c>
       <c r="J21" s="11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K21" s="9"/>
       <c r="L21" s="11" t="b">
@@ -1776,7 +1780,7 @@
       </c>
       <c r="M21" s="11"/>
       <c r="N21" s="12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O21" s="11"/>
       <c r="P21" s="11"/>

--- a/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/rule/process.vendor.check-in/activity-rule.xlsx
+++ b/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/rule/process.vendor.check-in/activity-rule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/rule/process.vendor.check-in/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FED07049-1EF5-264E-99A2-D3F666F0D221}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB98EB44-550C-E645-8307-C83516AFD977}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="64400" yWindow="-2220" windowWidth="47800" windowHeight="23220" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="52140" yWindow="-6560" windowWidth="47800" windowHeight="23220" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-CDATA" sheetId="7" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="107">
   <si>
     <t>key</t>
   </si>
@@ -214,10 +214,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>指定交接人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>指定审批领导</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -262,14 +258,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>$zo.phase == "DRAFT"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>交接确认完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>“${lo.realname}”暂存了${zw.name}工单：${zn.serial}。</t>
   </si>
   <si>
@@ -287,18 +275,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>任务单：${zn.taskSerial}通过审批，工作交接确认完成。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>任务单：${zn.taskSerial}分派给了“${un.acceptedBy.realname}”。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>任务单：${zn.taskSerial}通过了审批，被${un.closeBy.realname}关闭。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>“${un.openBy.realname}”提交了${zw.name}工单：${zn.serial}。</t>
   </si>
   <si>
@@ -373,25 +353,82 @@
     <t>f15a5e77-42e3-4d7f-a71f-9a86ed8455c6</t>
   </si>
   <si>
-    <t>0227041d-f508-4839-a98a-f74ac466aa2f</t>
-  </si>
-  <si>
-    <t>270a62f3-cbbf-4208-a2e5-a524c7774a94</t>
-  </si>
-  <si>
     <t>w.vendor.check.in</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>$zo.status == "FINISHED" and $zn.flowEnd == false</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>e.init</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>处理/关闭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$zo.phase == "DRAFT" and $zn.flowEnd == false</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$zn.status == "PENDING" and $zn.acceptedBy != null</t>
+  </si>
+  <si>
+    <t>$zn.status == "PENDING" and $zo.acceptedBy != null</t>
+  </si>
+  <si>
+    <t>$zo.phase == "PENDING" and $zn.flowEnd == false</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门审批通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指定部门审批人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>领导审批通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$zo.phase == "ADMIT" and $zn.flowEnd == false</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务单：${zn.taskSerial}通过审批，部门审批通过。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务单：${zn.taskSerial}通过审批，领导审批通过。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指定处理人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>72c634c2-0228-4fc8-bdde-8645e0b8c2f6</t>
+  </si>
+  <si>
+    <t>28ae28e6-4e1d-4086-a800-21694bf156db</t>
+  </si>
+  <si>
+    <t>13e958f9-1522-41b6-ba6c-7cddab6dddde</t>
+  </si>
+  <si>
+    <t>fbca5890-2308-4df9-98dc-c4a4a87c69c4</t>
+  </si>
+  <si>
+    <t>b7fe934d-c4a5-4b54-bc1b-6908a8167a47</t>
+  </si>
+  <si>
+    <t>387179d2-df38-4e08-838e-21784cb5b678</t>
+  </si>
+  <si>
+    <t>a98cb141-544a-48b5-9f65-529291cf18f8</t>
+  </si>
+  <si>
+    <t>任务单：${zn.taskSerial}处理完成，已经被${un.closeBy.realname}关闭。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -399,7 +436,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -425,6 +462,14 @@
     <font>
       <sz val="16"/>
       <color rgb="FF0070C0"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
       <name val="等线"/>
       <family val="4"/>
       <charset val="134"/>
@@ -555,7 +600,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -602,6 +647,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -916,10 +963,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{500280C7-B0AC-7C45-9420-F2551253A777}">
-  <dimension ref="A2:P21"/>
+  <dimension ref="A2:P26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
@@ -929,7 +976,7 @@
     <col min="3" max="3" width="21" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="69.5" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="111" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="26.5" style="6" bestFit="1" customWidth="1"/>
@@ -1069,34 +1116,34 @@
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="8" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>31</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E5" s="9">
         <v>1005</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I5" s="11" t="s">
         <v>34</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="K5" s="9"/>
       <c r="L5" s="11" t="b">
@@ -1104,23 +1151,23 @@
       </c>
       <c r="M5" s="11"/>
       <c r="N5" s="12" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="O5" s="11"/>
       <c r="P5" s="11"/>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="8" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>36</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E6" s="9">
         <v>1005</v>
@@ -1129,16 +1176,16 @@
         <v>37</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="I6" s="11" t="s">
         <v>34</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="K6" s="9"/>
       <c r="L6" s="11" t="b">
@@ -1146,23 +1193,23 @@
       </c>
       <c r="M6" s="11"/>
       <c r="N6" s="12" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="O6" s="11"/>
       <c r="P6" s="11"/>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="8" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>31</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E7" s="9">
         <v>1010</v>
@@ -1171,16 +1218,16 @@
         <v>40</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I7" s="11" t="s">
         <v>34</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="K7" s="9"/>
       <c r="L7" s="11" t="b">
@@ -1188,41 +1235,41 @@
       </c>
       <c r="M7" s="11"/>
       <c r="N7" s="12" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="O7" s="11"/>
       <c r="P7" s="11"/>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>31</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E8" s="9">
         <v>1010</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I8" s="11" t="s">
         <v>34</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="K8" s="9"/>
       <c r="L8" s="11" t="b">
@@ -1230,23 +1277,23 @@
       </c>
       <c r="M8" s="11"/>
       <c r="N8" s="12" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="O8" s="11"/>
       <c r="P8" s="11"/>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="8" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>31</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E9" s="17">
         <v>1015</v>
@@ -1255,16 +1302,16 @@
         <v>42</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I9" s="11" t="s">
         <v>34</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="K9" s="9"/>
       <c r="L9" s="11" t="b">
@@ -1272,23 +1319,23 @@
       </c>
       <c r="M9" s="11"/>
       <c r="N9" s="12" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="O9" s="11"/>
       <c r="P9" s="11"/>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="8" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>31</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E10" s="17">
         <v>1015</v>
@@ -1297,16 +1344,16 @@
         <v>43</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I10" s="11" t="s">
         <v>34</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="K10" s="9"/>
       <c r="L10" s="11" t="b">
@@ -1314,23 +1361,23 @@
       </c>
       <c r="M10" s="11"/>
       <c r="N10" s="12" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="O10" s="11"/>
       <c r="P10" s="11"/>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>36</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E11" s="17">
         <v>1005</v>
@@ -1339,16 +1386,16 @@
         <v>37</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="I11" s="11" t="s">
         <v>34</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="K11" s="9"/>
       <c r="L11" s="11" t="b">
@@ -1356,41 +1403,41 @@
       </c>
       <c r="M11" s="11"/>
       <c r="N11" s="12" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="O11" s="11"/>
       <c r="P11" s="11"/>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>36</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E12" s="9">
         <v>1010</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>69</v>
+        <v>93</v>
+      </c>
+      <c r="G12" s="22" t="s">
+        <v>89</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="I12" s="11" t="s">
         <v>34</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="K12" s="9"/>
       <c r="L12" s="11" t="b">
@@ -1398,17 +1445,17 @@
       </c>
       <c r="M12" s="11"/>
       <c r="N12" s="12" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="O12" s="11"/>
       <c r="P12" s="11"/>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="8" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>36</v>
@@ -1420,19 +1467,19 @@
         <v>1010</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
+      </c>
+      <c r="G13" s="23" t="s">
+        <v>90</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="I13" s="11" t="s">
         <v>34</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="K13" s="11" t="s">
         <v>41</v>
@@ -1442,23 +1489,23 @@
       </c>
       <c r="M13" s="11"/>
       <c r="N13" s="12" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="O13" s="11"/>
       <c r="P13" s="11"/>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="8" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>36</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E14" s="9">
         <v>1015</v>
@@ -1467,16 +1514,16 @@
         <v>40</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I14" s="11" t="s">
         <v>34</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="K14" s="9"/>
       <c r="L14" s="11" t="b">
@@ -1484,41 +1531,41 @@
       </c>
       <c r="M14" s="11"/>
       <c r="N14" s="12" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="O14" s="11"/>
       <c r="P14" s="11"/>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="8" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>36</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E15" s="9">
         <v>1015</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I15" s="11" t="s">
         <v>34</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="K15" s="9"/>
       <c r="L15" s="11" t="b">
@@ -1526,41 +1573,41 @@
       </c>
       <c r="M15" s="11"/>
       <c r="N15" s="12" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="O15" s="11"/>
       <c r="P15" s="11"/>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="8" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>44</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E16" s="9">
         <v>1005</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="I16" s="18" t="s">
         <v>34</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="K16" s="9"/>
       <c r="L16" s="11" t="b">
@@ -1568,41 +1615,41 @@
       </c>
       <c r="M16" s="11"/>
       <c r="N16" s="12" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="O16" s="11"/>
       <c r="P16" s="11"/>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="8" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>44</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E17" s="9">
         <v>1010</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="I17" s="11" t="s">
         <v>34</v>
       </c>
       <c r="J17" s="11" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="K17" s="9"/>
       <c r="L17" s="11" t="b">
@@ -1610,17 +1657,17 @@
       </c>
       <c r="M17" s="11"/>
       <c r="N17" s="12" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="O17" s="11"/>
       <c r="P17" s="11"/>
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="8" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>44</v>
@@ -1632,19 +1679,19 @@
         <v>1010</v>
       </c>
       <c r="F18" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="G18" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="G18" s="11" t="s">
-        <v>48</v>
-      </c>
       <c r="H18" s="11" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="I18" s="11" t="s">
         <v>34</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="K18" s="11" t="s">
         <v>41</v>
@@ -1654,23 +1701,23 @@
       </c>
       <c r="M18" s="11"/>
       <c r="N18" s="12" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="O18" s="11"/>
       <c r="P18" s="11"/>
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="8" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>44</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E19" s="9">
         <v>1015</v>
@@ -1679,16 +1726,16 @@
         <v>40</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I19" s="11" t="s">
         <v>34</v>
       </c>
       <c r="J19" s="11" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="K19" s="9"/>
       <c r="L19" s="11" t="b">
@@ -1696,41 +1743,41 @@
       </c>
       <c r="M19" s="11"/>
       <c r="N19" s="12" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="O19" s="11"/>
       <c r="P19" s="11"/>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="8" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>44</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E20" s="9">
         <v>1015</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I20" s="11" t="s">
         <v>34</v>
       </c>
       <c r="J20" s="11" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="K20" s="9"/>
       <c r="L20" s="11" t="b">
@@ -1738,41 +1785,41 @@
       </c>
       <c r="M20" s="11"/>
       <c r="N20" s="12" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="O20" s="11"/>
       <c r="P20" s="11"/>
     </row>
     <row r="21" spans="1:16">
       <c r="A21" s="8" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C21" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" s="9">
+        <v>1005</v>
+      </c>
+      <c r="F21" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="D21" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="E21" s="9">
-        <v>1020</v>
-      </c>
-      <c r="F21" s="11" t="s">
+      <c r="G21" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="G21" s="11" t="s">
-        <v>71</v>
-      </c>
       <c r="H21" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="I21" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="I21" s="11" t="s">
         <v>34</v>
       </c>
       <c r="J21" s="11" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="K21" s="9"/>
       <c r="L21" s="11" t="b">
@@ -1780,10 +1827,222 @@
       </c>
       <c r="M21" s="11"/>
       <c r="N21" s="12" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="O21" s="11"/>
       <c r="P21" s="11"/>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E22" s="9">
+        <v>1010</v>
+      </c>
+      <c r="F22" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="I22" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J22" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="K22" s="9"/>
+      <c r="L22" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="M22" s="11"/>
+      <c r="N22" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E23" s="9">
+        <v>1010</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="I23" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J23" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="K23" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="L23" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="M23" s="11"/>
+      <c r="N23" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E24" s="9">
+        <v>1015</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I24" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J24" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="K24" s="9"/>
+      <c r="L24" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="M24" s="11"/>
+      <c r="N24" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E25" s="9">
+        <v>1015</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="I25" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J25" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="K25" s="9"/>
+      <c r="L25" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="M25" s="11"/>
+      <c r="N25" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E26" s="9">
+        <v>1020</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="H26" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="I26" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="J26" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="K26" s="9"/>
+      <c r="L26" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="M26" s="11"/>
+      <c r="N26" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/rule/process.vendor.check-in/activity-rule.xlsx
+++ b/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/rule/process.vendor.check-in/activity-rule.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/rule/process.vendor.check-in/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB98EB44-550C-E645-8307-C83516AFD977}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="52140" yWindow="-6560" windowWidth="47800" windowHeight="23220" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="52140" yWindow="-6564" windowWidth="23256" windowHeight="13176"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-CDATA" sheetId="7" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -379,18 +373,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>部门审批通过</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>指定部门审批人</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>领导审批通过</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>$zo.phase == "ADMIT" and $zn.flowEnd == false</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -429,14 +415,22 @@
   </si>
   <si>
     <t>任务单：${zn.taskSerial}处理完成，已经被${un.closeBy.realname}关闭。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门审批</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>领导审批</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -651,7 +645,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -709,7 +703,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -761,7 +755,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -955,42 +949,42 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{500280C7-B0AC-7C45-9420-F2551253A777}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:P26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="54.1640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="54.1796875" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.81640625" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="69.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.6328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="69.453125" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="111" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.453125" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.453125" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="94.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="22.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="10.83203125" style="2"/>
+    <col min="12" max="12" width="18.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="94.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="10.81640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
@@ -1014,7 +1008,7 @@
       <c r="O2" s="15"/>
       <c r="P2" s="15"/>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -1064,7 +1058,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>0</v>
       </c>
@@ -1114,7 +1108,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>70</v>
       </c>
@@ -1156,7 +1150,7 @@
       <c r="O5" s="11"/>
       <c r="P5" s="11"/>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>71</v>
       </c>
@@ -1198,7 +1192,7 @@
       <c r="O6" s="11"/>
       <c r="P6" s="11"/>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>72</v>
       </c>
@@ -1240,7 +1234,7 @@
       <c r="O7" s="11"/>
       <c r="P7" s="11"/>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
         <v>73</v>
       </c>
@@ -1282,7 +1276,7 @@
       <c r="O8" s="11"/>
       <c r="P8" s="11"/>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
         <v>74</v>
       </c>
@@ -1324,7 +1318,7 @@
       <c r="O9" s="11"/>
       <c r="P9" s="11"/>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
         <v>75</v>
       </c>
@@ -1366,7 +1360,7 @@
       <c r="O10" s="11"/>
       <c r="P10" s="11"/>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
         <v>76</v>
       </c>
@@ -1408,7 +1402,7 @@
       <c r="O11" s="11"/>
       <c r="P11" s="11"/>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
         <v>77</v>
       </c>
@@ -1425,7 +1419,7 @@
         <v>1010</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G12" s="22" t="s">
         <v>89</v>
@@ -1450,7 +1444,7 @@
       <c r="O12" s="11"/>
       <c r="P12" s="11"/>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
         <v>78</v>
       </c>
@@ -1494,7 +1488,7 @@
       <c r="O13" s="11"/>
       <c r="P13" s="11"/>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" s="8" t="s">
         <v>79</v>
       </c>
@@ -1536,7 +1530,7 @@
       <c r="O14" s="11"/>
       <c r="P14" s="11"/>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" s="8" t="s">
         <v>80</v>
       </c>
@@ -1578,7 +1572,7 @@
       <c r="O15" s="11"/>
       <c r="P15" s="11"/>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
         <v>81</v>
       </c>
@@ -1595,13 +1589,13 @@
         <v>1005</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="G16" s="11" t="s">
         <v>91</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I16" s="18" t="s">
         <v>34</v>
@@ -1620,7 +1614,7 @@
       <c r="O16" s="11"/>
       <c r="P16" s="11"/>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17" s="8" t="s">
         <v>82</v>
       </c>
@@ -1662,7 +1656,7 @@
       <c r="O17" s="11"/>
       <c r="P17" s="11"/>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" s="8" t="s">
         <v>83</v>
       </c>
@@ -1706,7 +1700,7 @@
       <c r="O18" s="11"/>
       <c r="P18" s="11"/>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19" s="8" t="s">
         <v>84</v>
       </c>
@@ -1748,9 +1742,9 @@
       <c r="O19" s="11"/>
       <c r="P19" s="11"/>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>68</v>
@@ -1790,9 +1784,9 @@
       <c r="O20" s="11"/>
       <c r="P20" s="11"/>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A21" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>68</v>
@@ -1807,13 +1801,13 @@
         <v>1005</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="G21" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="H21" s="11" t="s">
         <v>95</v>
-      </c>
-      <c r="H21" s="11" t="s">
-        <v>97</v>
       </c>
       <c r="I21" s="11" t="s">
         <v>34</v>
@@ -1832,9 +1826,9 @@
       <c r="O21" s="11"/>
       <c r="P21" s="11"/>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A22" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B22" s="10" t="s">
         <v>68</v>
@@ -1849,7 +1843,7 @@
         <v>1010</v>
       </c>
       <c r="F22" s="19" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G22" s="11" t="s">
         <v>64</v>
@@ -1874,9 +1868,9 @@
       <c r="O22" s="11"/>
       <c r="P22" s="11"/>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A23" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>68</v>
@@ -1918,9 +1912,9 @@
       <c r="O23" s="11"/>
       <c r="P23" s="11"/>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A24" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B24" s="10" t="s">
         <v>68</v>
@@ -1960,9 +1954,9 @@
       <c r="O24" s="11"/>
       <c r="P24" s="11"/>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A25" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B25" s="10" t="s">
         <v>68</v>
@@ -2002,9 +1996,9 @@
       <c r="O25" s="11"/>
       <c r="P25" s="11"/>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A26" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B26" s="10" t="s">
         <v>68</v>
@@ -2025,7 +2019,7 @@
         <v>66</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I26" s="18" t="s">
         <v>34</v>
